--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>38.771062840709</v>
+        <v>93.52834737506765</v>
       </c>
       <c r="R2">
-        <v>348.939565566381</v>
+        <v>841.7551263756089</v>
       </c>
       <c r="S2">
-        <v>0.009259716064892081</v>
+        <v>0.02011117260602953</v>
       </c>
       <c r="T2">
-        <v>0.009259716064892079</v>
+        <v>0.02011117260602953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>13.894576354402</v>
+        <v>35.39548471012466</v>
       </c>
       <c r="R3">
-        <v>125.051187189618</v>
+        <v>318.559362391122</v>
       </c>
       <c r="S3">
-        <v>0.003318449958731466</v>
+        <v>0.007611004817873605</v>
       </c>
       <c r="T3">
-        <v>0.003318449958731466</v>
+        <v>0.007611004817873608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>20.068963842947</v>
+        <v>42.80137785534455</v>
       </c>
       <c r="R4">
-        <v>180.620674586523</v>
+        <v>385.212400698101</v>
       </c>
       <c r="S4">
-        <v>0.004793082605596075</v>
+        <v>0.009203475972613928</v>
       </c>
       <c r="T4">
-        <v>0.004793082605596074</v>
+        <v>0.009203475972613931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>6.374859725639333</v>
+        <v>13.84030635803678</v>
       </c>
       <c r="R5">
-        <v>57.37373753075401</v>
+        <v>124.562757222331</v>
       </c>
       <c r="S5">
-        <v>0.001522511550830021</v>
+        <v>0.002976047347127672</v>
       </c>
       <c r="T5">
-        <v>0.001522511550830021</v>
+        <v>0.002976047347127673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>7.804106319818001</v>
+        <v>18.42971101989555</v>
       </c>
       <c r="R6">
-        <v>70.23695687836201</v>
+        <v>165.86739917906</v>
       </c>
       <c r="S6">
-        <v>0.001863859367452489</v>
+        <v>0.003962895847116916</v>
       </c>
       <c r="T6">
-        <v>0.001863859367452488</v>
+        <v>0.003962895847116918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>25.424495609727</v>
+        <v>123.6329427664964</v>
       </c>
       <c r="R7">
-        <v>228.820460487543</v>
+        <v>1112.696484898468</v>
       </c>
       <c r="S7">
-        <v>0.00607214745199031</v>
+        <v>0.02658449038768318</v>
       </c>
       <c r="T7">
-        <v>0.006072147451990308</v>
+        <v>0.02658449038768319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>1105.610192496159</v>
+        <v>1046.971918594106</v>
       </c>
       <c r="R8">
-        <v>9950.491732465427</v>
+        <v>9422.747267346947</v>
       </c>
       <c r="S8">
-        <v>0.2640535417619697</v>
+        <v>0.2251278201685077</v>
       </c>
       <c r="T8">
-        <v>0.2640535417619697</v>
+        <v>0.2251278201685077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
-        <v>396.2229588845092</v>
+        <v>396.2229588845094</v>
       </c>
       <c r="R9">
-        <v>3566.006629960584</v>
+        <v>3566.006629960585</v>
       </c>
       <c r="S9">
-        <v>0.09463016561438356</v>
+        <v>0.08519885724744793</v>
       </c>
       <c r="T9">
-        <v>0.09463016561438355</v>
+        <v>0.08519885724744793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>572.2941119453025</v>
+        <v>479.1257618610192</v>
       </c>
       <c r="R10">
-        <v>5150.647007507723</v>
+        <v>4312.131856749173</v>
       </c>
       <c r="S10">
-        <v>0.136681344125003</v>
+        <v>0.1030252449360718</v>
       </c>
       <c r="T10">
-        <v>0.136681344125003</v>
+        <v>0.1030252449360718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>181.7878946821057</v>
+        <v>154.9306975723036</v>
       </c>
       <c r="R11">
-        <v>1636.091052138952</v>
+        <v>1394.376278150732</v>
       </c>
       <c r="S11">
-        <v>0.04341651132203065</v>
+        <v>0.03331437033046264</v>
       </c>
       <c r="T11">
-        <v>0.04341651132203065</v>
+        <v>0.03331437033046264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>222.5448274648506</v>
+        <v>206.3052587495911</v>
       </c>
       <c r="R12">
-        <v>2002.903447183656</v>
+        <v>1856.74732874632</v>
       </c>
       <c r="S12">
-        <v>0.05315051388973556</v>
+        <v>0.04436131701981343</v>
       </c>
       <c r="T12">
-        <v>0.05315051388973555</v>
+        <v>0.04436131701981343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>725.0144676372759</v>
+        <v>1383.967780063433</v>
       </c>
       <c r="R13">
-        <v>6525.130208735483</v>
+        <v>12455.7100205709</v>
       </c>
       <c r="S13">
-        <v>0.1731556377714533</v>
+        <v>0.2975912189961229</v>
       </c>
       <c r="T13">
-        <v>0.1731556377714533</v>
+        <v>0.297591218996123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>11.645084279985</v>
+        <v>136.844518649971</v>
       </c>
       <c r="R14">
-        <v>104.805758519865</v>
+        <v>1231.600667849739</v>
       </c>
       <c r="S14">
-        <v>0.002781202424793456</v>
+        <v>0.02942534335309165</v>
       </c>
       <c r="T14">
-        <v>0.002781202424793456</v>
+        <v>0.02942534335309165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>4.173306090330001</v>
+        <v>51.78834228851801</v>
       </c>
       <c r="R15">
-        <v>37.55975481297001</v>
+        <v>466.0950805966621</v>
       </c>
       <c r="S15">
-        <v>0.0009967131828990117</v>
+        <v>0.01113592103330769</v>
       </c>
       <c r="T15">
-        <v>0.0009967131828990115</v>
+        <v>0.01113592103330769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>6.027814515255</v>
+        <v>62.62415742985235</v>
       </c>
       <c r="R16">
-        <v>54.250330637295</v>
+        <v>563.6174168686711</v>
       </c>
       <c r="S16">
-        <v>0.001439626536224089</v>
+        <v>0.01346591995609947</v>
       </c>
       <c r="T16">
-        <v>0.001439626536224089</v>
+        <v>0.01346591995609947</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>1.91472127249</v>
+        <v>20.25022482155567</v>
       </c>
       <c r="R17">
-        <v>17.23249145241</v>
+        <v>182.252023394001</v>
       </c>
       <c r="S17">
-        <v>0.0004572940236255344</v>
+        <v>0.004354356493267556</v>
       </c>
       <c r="T17">
-        <v>0.0004572940236255344</v>
+        <v>0.004354356493267557</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>2.34400269597</v>
+        <v>26.96513949147334</v>
       </c>
       <c r="R18">
-        <v>21.09602426373</v>
+        <v>242.68625542326</v>
       </c>
       <c r="S18">
-        <v>0.000559819562058383</v>
+        <v>0.005798248230388891</v>
       </c>
       <c r="T18">
-        <v>0.0005598195620583829</v>
+        <v>0.005798248230388892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>7.636375493955001</v>
+        <v>180.8915801143587</v>
       </c>
       <c r="R19">
-        <v>68.72737944559501</v>
+        <v>1628.024221029228</v>
       </c>
       <c r="S19">
-        <v>0.00182380011426146</v>
+        <v>0.03889667563640787</v>
       </c>
       <c r="T19">
-        <v>0.00182380011426146</v>
+        <v>0.03889667563640788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>231.7710630501643</v>
+        <v>28.96738395199267</v>
       </c>
       <c r="R20">
-        <v>2085.939567451479</v>
+        <v>260.706455567934</v>
       </c>
       <c r="S20">
-        <v>0.05535402123795572</v>
+        <v>0.006228785977233599</v>
       </c>
       <c r="T20">
-        <v>0.05535402123795572</v>
+        <v>0.006228785977233599</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>83.06093504638466</v>
+        <v>10.96260785677467</v>
       </c>
       <c r="R21">
-        <v>747.548415417462</v>
+        <v>98.66347071097201</v>
       </c>
       <c r="S21">
-        <v>0.01983749266234717</v>
+        <v>0.002357262851397104</v>
       </c>
       <c r="T21">
-        <v>0.01983749266234717</v>
+        <v>0.002357262851397104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>119.9710491122063</v>
+        <v>13.25634399416956</v>
       </c>
       <c r="R22">
-        <v>1079.739442009857</v>
+        <v>119.307095947526</v>
       </c>
       <c r="S22">
-        <v>0.02865275722129104</v>
+        <v>0.002850479343150631</v>
       </c>
       <c r="T22">
-        <v>0.02865275722129105</v>
+        <v>0.002850479343150631</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>38.10852494494289</v>
+        <v>4.286587751611777</v>
       </c>
       <c r="R23">
-        <v>342.976724504486</v>
+        <v>38.579289764506</v>
       </c>
       <c r="S23">
-        <v>0.009101481744047419</v>
+        <v>0.0009217345177483324</v>
       </c>
       <c r="T23">
-        <v>0.009101481744047421</v>
+        <v>0.0009217345177483324</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>46.65247443259533</v>
+        <v>5.708007574395556</v>
       </c>
       <c r="R24">
-        <v>419.8722698933581</v>
+        <v>51.37206816956</v>
       </c>
       <c r="S24">
-        <v>0.01114203829658466</v>
+        <v>0.001227378958219403</v>
       </c>
       <c r="T24">
-        <v>0.01114203829658466</v>
+        <v>0.001227378958219403</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>151.986093318893</v>
+        <v>38.29130977659645</v>
       </c>
       <c r="R25">
-        <v>1367.874839870037</v>
+        <v>344.621787989368</v>
       </c>
       <c r="S25">
-        <v>0.03629892932590559</v>
+        <v>0.008233687024746491</v>
       </c>
       <c r="T25">
-        <v>0.03629892932590559</v>
+        <v>0.008233687024746493</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>12.72300267930966</v>
+        <v>21.28981161753967</v>
       </c>
       <c r="R26">
-        <v>114.507024113787</v>
+        <v>191.608304557857</v>
       </c>
       <c r="S26">
-        <v>0.003038642319074333</v>
+        <v>0.004577896308518872</v>
       </c>
       <c r="T26">
-        <v>0.003038642319074332</v>
+        <v>0.004577896308518871</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>4.559605005187333</v>
+        <v>8.057056739900666</v>
       </c>
       <c r="R27">
-        <v>41.036445046686</v>
+        <v>72.513510659106</v>
       </c>
       <c r="S27">
-        <v>0.001088973183158767</v>
+        <v>0.001732489275608765</v>
       </c>
       <c r="T27">
-        <v>0.001088973183158767</v>
+        <v>0.001732489275608765</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>6.585774596735665</v>
+        <v>9.742856546552558</v>
       </c>
       <c r="R28">
-        <v>59.27197137062099</v>
+        <v>87.68570891897301</v>
       </c>
       <c r="S28">
-        <v>0.001572884475303082</v>
+        <v>0.002094982699712879</v>
       </c>
       <c r="T28">
-        <v>0.001572884475303082</v>
+        <v>0.002094982699712879</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>2.091955995706444</v>
+        <v>3.150462115084777</v>
       </c>
       <c r="R29">
-        <v>18.827603961358</v>
+        <v>28.354159035763</v>
       </c>
       <c r="S29">
-        <v>0.0004996230982904887</v>
+        <v>0.0006774361908817059</v>
       </c>
       <c r="T29">
-        <v>0.0004996230982904887</v>
+        <v>0.0006774361908817057</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>2.560973528752666</v>
+        <v>4.195146036375556</v>
       </c>
       <c r="R30">
-        <v>23.048761758774</v>
+        <v>37.75631432738</v>
       </c>
       <c r="S30">
-        <v>0.0006116388354733268</v>
+        <v>0.000902072028565964</v>
       </c>
       <c r="T30">
-        <v>0.0006116388354733267</v>
+        <v>0.0009020720285659639</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>8.343230803128998</v>
+        <v>28.14250582944045</v>
       </c>
       <c r="R31">
-        <v>75.08907722816099</v>
+        <v>253.282552464964</v>
       </c>
       <c r="S31">
-        <v>0.001992618789385328</v>
+        <v>0.006051414444781957</v>
       </c>
       <c r="T31">
-        <v>0.001992618789385328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>97.419871</v>
-      </c>
-      <c r="N32">
-        <v>292.259613</v>
-      </c>
-      <c r="O32">
-        <v>0.3451284562056486</v>
-      </c>
-      <c r="P32">
-        <v>0.3451284562056485</v>
-      </c>
-      <c r="Q32">
-        <v>44.55598467385034</v>
-      </c>
-      <c r="R32">
-        <v>401.003862064653</v>
-      </c>
-      <c r="S32">
-        <v>0.01064133239696332</v>
-      </c>
-      <c r="T32">
-        <v>0.01064133239696332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>34.912838</v>
-      </c>
-      <c r="N33">
-        <v>104.738514</v>
-      </c>
-      <c r="O33">
-        <v>0.123685381195977</v>
-      </c>
-      <c r="P33">
-        <v>0.123685381195977</v>
-      </c>
-      <c r="Q33">
-        <v>15.96774722529267</v>
-      </c>
-      <c r="R33">
-        <v>143.709725027634</v>
-      </c>
-      <c r="S33">
-        <v>0.003813586594457018</v>
-      </c>
-      <c r="T33">
-        <v>0.003813586594457017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>50.427193</v>
-      </c>
-      <c r="N34">
-        <v>151.281579</v>
-      </c>
-      <c r="O34">
-        <v>0.1786479400170247</v>
-      </c>
-      <c r="P34">
-        <v>0.1786479400170247</v>
-      </c>
-      <c r="Q34">
-        <v>23.06339779954433</v>
-      </c>
-      <c r="R34">
-        <v>207.570580195899</v>
-      </c>
-      <c r="S34">
-        <v>0.005508245053607408</v>
-      </c>
-      <c r="T34">
-        <v>0.005508245053607408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>16.01808066666667</v>
-      </c>
-      <c r="N35">
-        <v>48.054242</v>
-      </c>
-      <c r="O35">
-        <v>0.05674710297927014</v>
-      </c>
-      <c r="P35">
-        <v>0.05674710297927013</v>
-      </c>
-      <c r="Q35">
-        <v>7.326034713066889</v>
-      </c>
-      <c r="R35">
-        <v>65.934312417602</v>
-      </c>
-      <c r="S35">
-        <v>0.001749681240446025</v>
-      </c>
-      <c r="T35">
-        <v>0.001749681240446025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>19.609342</v>
-      </c>
-      <c r="N36">
-        <v>58.82802600000001</v>
-      </c>
-      <c r="O36">
-        <v>0.06946983056124748</v>
-      </c>
-      <c r="P36">
-        <v>0.06946983056124745</v>
-      </c>
-      <c r="Q36">
-        <v>8.968535193567336</v>
-      </c>
-      <c r="R36">
-        <v>80.71681674210602</v>
-      </c>
-      <c r="S36">
-        <v>0.002141960609943052</v>
-      </c>
-      <c r="T36">
-        <v>0.002141960609943052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>63.884013</v>
-      </c>
-      <c r="N37">
-        <v>191.652039</v>
-      </c>
-      <c r="O37">
-        <v>0.2263212890408322</v>
-      </c>
-      <c r="P37">
-        <v>0.2263212890408321</v>
-      </c>
-      <c r="Q37">
-        <v>29.218013480351</v>
-      </c>
-      <c r="R37">
-        <v>262.962121323159</v>
-      </c>
-      <c r="S37">
-        <v>0.006978155587836138</v>
-      </c>
-      <c r="T37">
-        <v>0.006978155587836137</v>
+        <v>0.006051414444781957</v>
       </c>
     </row>
   </sheetData>
